--- a/DOM_Banner/output/dept_banner/Lauren Estep_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Lauren Estep_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,397 +360,201 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Saif Mashaqi, Rekha Kallamadi, Abhishek Matta, Stuart F. Quan, Shivali Patel, Daniel Combs, Lauren Estep, Joyce Lee‐Iannotti, Charles E. Smith, Sairam Parthasarathy, David Gozal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229052959</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Obstructive Sleep Apnea as a Risk Factor for COVID-19 Severity—The Gut Microbiome as a Common Player Mediating Systemic Inflammation via Gut Barrier Dysfunction</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5038604569", "https://openalex.org/A5069342328", "https://openalex.org/A5040978534", "https://openalex.org/A5063076862", "https://openalex.org/A5062299099", "https://openalex.org/A5073874574", "https://openalex.org/A5066376158", "https://openalex.org/A5058152308", "https://openalex.org/A5006941646", "https://openalex.org/A5020095687", "https://openalex.org/A5028348554"), au_display_name = c("Saif Mashaqi", "Rekha Kallamadi", "Abhishek Matta", "Stuart F. Quan", 
-"Shivali Patel", "Daniel Combs", "Lauren Estep", "Joyce Lee‐Iannotti", "Charles E. Smith", "Sairam Parthasarathy", "David Gozal"), au_orcid = c("https://orcid.org/0000-0003-3978-5338", NA, "https://orcid.org/0000-0001-7824-8055", "https://orcid.org/0000-0002-9474-7679", "https://orcid.org/0000-0003-0900-043X", "https://orcid.org/0000-0003-3821-3629", NA, "https://orcid.org/0000-0003-2710-3133", NA, "https://orcid.org/0000-0002-1128-3005", "https://orcid.org/0000-0001-8195-6036"), author_position = c("first", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA", "Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA", "Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital and Division of Sleep Medicine, Harvard Medical School, Boston, MA 02115, USA", 
-"Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA", "Department of Sleep Medicine, The University of Arizona College of Medicine, Phoenix, AZ 85006, USA", 
-"The Intermountain Healthcare, Merrill Gappmayer Family Medicine Center, Provo, UT 84604, USA", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA", "Department of Child Health, University of Missouri School of Medicine, Columbia, MO 65201, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I24571045", "https://openalex.org/I24571045", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I108785884", "https://openalex.org/I138006243", "https://openalex.org/I2800649613"), institution_display_name = c("University of Arizona", "University of North Dakota", "University of North Dakota", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "Intermountain Healthcare", "University of Arizona", 
-"University of Missouri Health System"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/04a5szx83", "https://ror.org/04a5szx83", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/04mvr1r74", "https://ror.org/03m2x1q45", "https://ror.org/03yp8z857"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", 
-"education", "education", "education", "education", "education", "education", "education", "healthcare", "education", "healthcare"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I24571045", "https://openalex.org/I24571045", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I108785884", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I2800649613"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The novel corona virus that is now known as (SARS-CoV-2) has killed more than six million people worldwide. The disease presentation varies from mild respiratory symptoms to acute respiratory distress syndrome and ultimately death. Several risk factors have been shown to worsen the severity of COVID-19 outcomes (such as age, hypertension, diabetes mellitus, and obesity). Since many of these risk factors are known to be influenced by obstructive sleep apnea, this raises the possibility that OSA might be an independent risk factor for COVID-19 severity. A shift in the gut microbiota has been proposed to contribute to outcomes in both COVID-19 and OSA. To further evaluate the potential triangular interrelationships between these three elements, we conducted a thorough literature review attempting to elucidate these interactions. From this review, it is concluded that OSA may be a risk factor for worse COVID-19 clinical outcomes, and the shifts in gut microbiota associated with both COVID-19 and OSA may mediate processes leading to bacterial translocation via a defective gut barrier which can then foster systemic inflammation. Thus, targeting biomarkers of intestinal tight junction dysfunction in conjunction with restoring gut dysbiosis may provide novel avenues for both risk detection and adjuvant therapy.</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>Cells</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2736626452</t>
+          <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2073-4409</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35563874</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2073-4409/11/9/1569/pdf?version=1652168786</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1569</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1569</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2073-4409/11/9/1569/pdf?version=1652168786</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4229052959</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4229052959", doi = "https://doi.org/10.3390/cells11091569", pmid = "https://pubmed.ncbi.nlm.nih.gov/35563874")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/cells11091569</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1858730046", "https://openalex.org/W1923056738", "https://openalex.org/W1923556669", "https://openalex.org/W1951711480", "https://openalex.org/W1979031540", "https://openalex.org/W1987786284", "https://openalex.org/W1988279036", "https://openalex.org/W2002428861", "https://openalex.org/W2019419945", "https://openalex.org/W2023812968", "https://openalex.org/W2031784540", "https://openalex.org/W2034556696", "https://openalex.org/W2042220177", "https://openalex.org/W2047275317", 
-"https://openalex.org/W2061583677", "https://openalex.org/W2076007231", "https://openalex.org/W2077755984", "https://openalex.org/W2104423086", "https://openalex.org/W2112318391", "https://openalex.org/W2122341732", "https://openalex.org/W2125826054", "https://openalex.org/W2126971215", "https://openalex.org/W2131691531", "https://openalex.org/W2136759951", "https://openalex.org/W2139704316", "https://openalex.org/W2150429350", "https://openalex.org/W2156876629", "https://openalex.org/W2159155233", 
-"https://openalex.org/W2159945718", "https://openalex.org/W2162062989", "https://openalex.org/W2162133321", "https://openalex.org/W2162876267", "https://openalex.org/W2166522991", "https://openalex.org/W2169364567", "https://openalex.org/W2225428785", "https://openalex.org/W2482013437", "https://openalex.org/W2487789579", "https://openalex.org/W2514061538", "https://openalex.org/W2526741692", "https://openalex.org/W2531542945", "https://openalex.org/W2548496569", "https://openalex.org/W2585920057", 
-"https://openalex.org/W2653166871", "https://openalex.org/W2737720223", "https://openalex.org/W2776033757", "https://openalex.org/W2785563066", "https://openalex.org/W2792697684", "https://openalex.org/W2805063718", "https://openalex.org/W2895600081", "https://openalex.org/W2895999896", "https://openalex.org/W2898800746", "https://openalex.org/W2900097455", "https://openalex.org/W2917298154", "https://openalex.org/W2952874835", "https://openalex.org/W2984153037", "https://openalex.org/W2990249310", 
-"https://openalex.org/W2999401788", "https://openalex.org/W3003217347", "https://openalex.org/W3004220385", "https://openalex.org/W3008443627", "https://openalex.org/W3008827533", "https://openalex.org/W3011201358", "https://openalex.org/W3013800395", "https://openalex.org/W3015228903", "https://openalex.org/W3015696390", "https://openalex.org/W3015980152", "https://openalex.org/W3023909608", "https://openalex.org/W3024312732", "https://openalex.org/W3031959493", "https://openalex.org/W3033735761", 
-"https://openalex.org/W3037182544", "https://openalex.org/W3040254875", "https://openalex.org/W3042232275", "https://openalex.org/W3042693379", "https://openalex.org/W3044189878", "https://openalex.org/W3046790002", "https://openalex.org/W3047269154", "https://openalex.org/W3048958349", "https://openalex.org/W3080759103", "https://openalex.org/W3080957951", "https://openalex.org/W3081503808", "https://openalex.org/W3081793668", "https://openalex.org/W3087528632", "https://openalex.org/W3090514326", 
-"https://openalex.org/W3109922107", "https://openalex.org/W3110108935", "https://openalex.org/W3110715890", "https://openalex.org/W3118579072", "https://openalex.org/W3119770024", "https://openalex.org/W3120364357", "https://openalex.org/W3121546492", "https://openalex.org/W3122858547", "https://openalex.org/W3127546206", "https://openalex.org/W3131683633", "https://openalex.org/W3132784262", "https://openalex.org/W3151555235", "https://openalex.org/W3157699799", "https://openalex.org/W3160718305", 
-"https://openalex.org/W3163012248", "https://openalex.org/W3163672671", "https://openalex.org/W3165602562", "https://openalex.org/W3169168293", "https://openalex.org/W3181691618", "https://openalex.org/W3198961293", "https://openalex.org/W3200383213", "https://openalex.org/W3211813296", "https://openalex.org/W3213533233", "https://openalex.org/W3214448327", "https://openalex.org/W4220863542", "https://openalex.org/W4225492979", "https://openalex.org/W4293249723")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3214964065", "https://openalex.org/W3067900727", "https://openalex.org/W4311366456", "https://openalex.org/W4381466049", "https://openalex.org/W2783006976", "https://openalex.org/W3135269674", "https://openalex.org/W3198111711", "https://openalex.org/W3093469531", "https://openalex.org/W2801763052", "https://openalex.org/W3007894746")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Lauren Estep, Sairam Parthasarathy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293557746</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Mechanical Ventilation and Sleep</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5066376158", "https://openalex.org/A5020095687"), au_display_name = c("Lauren Estep", "Sairam Parthasarathy"), au_orcid = c(NA, "https://orcid.org/0000-0002-1128-3005"), author_position = c("first", "last"), au_affiliation_raw = c("Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA", "Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, USA"), institution_id = c("https://openalex.org/I138006243", 
-"https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US"), institution_type = c("education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Springer eBooks</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Springer eBooks</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306463937</t>
+          <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -765,130 +569,37 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4293557746</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4293557746", doi = "https://doi.org/10.1007/978-3-031-06447-0_10")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>book-chapter</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1525081124", "https://openalex.org/W1698070256", "https://openalex.org/W1892527141", "https://openalex.org/W1898899939", "https://openalex.org/W1903005360", "https://openalex.org/W1966055642", "https://openalex.org/W1971532959", "https://openalex.org/W1978574560", "https://openalex.org/W2005999688", "https://openalex.org/W2014912413", "https://openalex.org/W2024825263", "https://openalex.org/W2032063637", "https://openalex.org/W2032906459", "https://openalex.org/W2046916233", 
-"https://openalex.org/W2050477664", "https://openalex.org/W2065865039", "https://openalex.org/W2069506444", "https://openalex.org/W2069934712", "https://openalex.org/W2070027782", "https://openalex.org/W2073196382", "https://openalex.org/W2083499529", "https://openalex.org/W2088343584", "https://openalex.org/W2088951207", "https://openalex.org/W2091091293", "https://openalex.org/W2093297934", "https://openalex.org/W2105428854", "https://openalex.org/W2109896310", "https://openalex.org/W2119135338", 
-"https://openalex.org/W2126204966", "https://openalex.org/W2128209480", "https://openalex.org/W2130271602", "https://openalex.org/W2133732922", "https://openalex.org/W2134224532", "https://openalex.org/W2157061008", "https://openalex.org/W2329890359", "https://openalex.org/W2342243277", "https://openalex.org/W2473551374", "https://openalex.org/W2537606278", "https://openalex.org/W2597070792", "https://openalex.org/W2610582798", "https://openalex.org/W2625447343", "https://openalex.org/W2626627673", 
-"https://openalex.org/W2911756515", "https://openalex.org/W2977703028", "https://openalex.org/W3033237174", "https://openalex.org/W3093450586", "https://openalex.org/W3120714321", "https://openalex.org/W3174401636", "https://openalex.org/W3177017202", "https://openalex.org/W3189536877", "https://openalex.org/W3189622800")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2559834128", "https://openalex.org/W2170205356", "https://openalex.org/W2417907367", "https://openalex.org/W2361312777", "https://openalex.org/W3030442507", "https://openalex.org/W2910459538", "https://openalex.org/W2383697243", "https://openalex.org/W2018245099", "https://openalex.org/W3030767958", "https://openalex.org/W2348989627")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Lauren Estep_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Lauren Estep_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital and Division of Sleep Medicine, Harvard Medical School, Boston, MA 02115, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Sleep Medicine, The University of Arizona College of Medicine, Phoenix, AZ 85006, USA; The Intermountain Healthcare, Merrill Gappmayer Family Medicine Center, Provo, UT 84604, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Child Health, University of Missouri School of Medicine, Columbia, MO 65201, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229052959</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Obstructive Sleep Apnea as a Risk Factor for COVID-19 Severity—The Gut Microbiome as a Common Player Mediating Systemic Inflammation via Gut Barrier Dysfunction</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35563874</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293557746</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Mechanical Ventilation and Sleep</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
